--- a/src/test/resources/excelTests/manifestUploadTestInactiveSupplierOrCustomer.xlsx
+++ b/src/test/resources/excelTests/manifestUploadTestInactiveSupplierOrCustomer.xlsx
@@ -1883,7 +1883,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="51" t="n">
-        <v>43908.0</v>
+        <v>43909.0</v>
       </c>
       <c r="C3" s="61" t="n">
         <v>0.4375</v>
@@ -1895,7 +1895,7 @@
         <v>109</v>
       </c>
       <c r="F3" s="42" t="n">
-        <v>43909.0</v>
+        <v>43910.0</v>
       </c>
       <c r="G3" s="44" t="n">
         <v>0.6458333333333334</v>
@@ -1911,7 +1911,7 @@
         <v>108</v>
       </c>
       <c r="N3" s="48" t="n">
-        <v>43911.0</v>
+        <v>43912.0</v>
       </c>
       <c r="O3" s="53" t="n">
         <v>0.4583333333333333</v>
@@ -1923,7 +1923,7 @@
         <v>41</v>
       </c>
       <c r="R3" s="49" t="n">
-        <v>43924.0</v>
+        <v>43925.0</v>
       </c>
       <c r="S3" s="72" t="n">
         <v>0.4166666666666667</v>
@@ -1952,7 +1952,7 @@
         <v>91</v>
       </c>
       <c r="B4" s="41" t="n">
-        <v>43907.0</v>
+        <v>43908.0</v>
       </c>
       <c r="C4" s="59" t="n">
         <v>0.4791666666666667</v>
@@ -1964,7 +1964,7 @@
         <v>110</v>
       </c>
       <c r="F4" s="43" t="n">
-        <v>43906.0</v>
+        <v>43907.0</v>
       </c>
       <c r="G4" s="44" t="n">
         <v>0.5208333333333334</v>
@@ -1976,7 +1976,7 @@
         <v>111</v>
       </c>
       <c r="J4" s="46" t="n">
-        <v>43910.0</v>
+        <v>43911.0</v>
       </c>
       <c r="K4" s="55" t="n">
         <v>0.5277777777777778</v>
@@ -1988,7 +1988,7 @@
         <v>108</v>
       </c>
       <c r="N4" s="45" t="n">
-        <v>43912.0</v>
+        <v>43913.0</v>
       </c>
       <c r="O4" s="52" t="n">
         <v>0.7083333333333334</v>
@@ -2000,7 +2000,7 @@
         <v>134</v>
       </c>
       <c r="R4" s="50" t="n">
-        <v>43916.0</v>
+        <v>43917.0</v>
       </c>
       <c r="S4" s="75" t="n">
         <v>0.5</v>

--- a/src/test/resources/excelTests/manifestUploadTestInactiveSupplierOrCustomer.xlsx
+++ b/src/test/resources/excelTests/manifestUploadTestInactiveSupplierOrCustomer.xlsx
@@ -1883,7 +1883,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="51" t="n">
-        <v>43909.0</v>
+        <v>43911.0</v>
       </c>
       <c r="C3" s="61" t="n">
         <v>0.4375</v>
@@ -1895,7 +1895,7 @@
         <v>109</v>
       </c>
       <c r="F3" s="42" t="n">
-        <v>43910.0</v>
+        <v>43912.0</v>
       </c>
       <c r="G3" s="44" t="n">
         <v>0.6458333333333334</v>
@@ -1911,7 +1911,7 @@
         <v>108</v>
       </c>
       <c r="N3" s="48" t="n">
-        <v>43912.0</v>
+        <v>43914.0</v>
       </c>
       <c r="O3" s="53" t="n">
         <v>0.4583333333333333</v>
@@ -1923,7 +1923,7 @@
         <v>41</v>
       </c>
       <c r="R3" s="49" t="n">
-        <v>43925.0</v>
+        <v>43927.0</v>
       </c>
       <c r="S3" s="72" t="n">
         <v>0.4166666666666667</v>
@@ -1952,7 +1952,7 @@
         <v>91</v>
       </c>
       <c r="B4" s="41" t="n">
-        <v>43908.0</v>
+        <v>43910.0</v>
       </c>
       <c r="C4" s="59" t="n">
         <v>0.4791666666666667</v>
@@ -1964,7 +1964,7 @@
         <v>110</v>
       </c>
       <c r="F4" s="43" t="n">
-        <v>43907.0</v>
+        <v>43909.0</v>
       </c>
       <c r="G4" s="44" t="n">
         <v>0.5208333333333334</v>
@@ -1976,7 +1976,7 @@
         <v>111</v>
       </c>
       <c r="J4" s="46" t="n">
-        <v>43911.0</v>
+        <v>43913.0</v>
       </c>
       <c r="K4" s="55" t="n">
         <v>0.5277777777777778</v>
@@ -1988,7 +1988,7 @@
         <v>108</v>
       </c>
       <c r="N4" s="45" t="n">
-        <v>43913.0</v>
+        <v>43915.0</v>
       </c>
       <c r="O4" s="52" t="n">
         <v>0.7083333333333334</v>
@@ -2000,7 +2000,7 @@
         <v>134</v>
       </c>
       <c r="R4" s="50" t="n">
-        <v>43917.0</v>
+        <v>43919.0</v>
       </c>
       <c r="S4" s="75" t="n">
         <v>0.5</v>

--- a/src/test/resources/excelTests/manifestUploadTestInactiveSupplierOrCustomer.xlsx
+++ b/src/test/resources/excelTests/manifestUploadTestInactiveSupplierOrCustomer.xlsx
@@ -1883,7 +1883,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="51" t="n">
-        <v>43911.0</v>
+        <v>43919.0</v>
       </c>
       <c r="C3" s="61" t="n">
         <v>0.4375</v>
@@ -1895,7 +1895,7 @@
         <v>109</v>
       </c>
       <c r="F3" s="42" t="n">
-        <v>43912.0</v>
+        <v>43920.0</v>
       </c>
       <c r="G3" s="44" t="n">
         <v>0.6458333333333334</v>
@@ -1911,7 +1911,7 @@
         <v>108</v>
       </c>
       <c r="N3" s="48" t="n">
-        <v>43914.0</v>
+        <v>43922.0</v>
       </c>
       <c r="O3" s="53" t="n">
         <v>0.4583333333333333</v>
@@ -1923,7 +1923,7 @@
         <v>41</v>
       </c>
       <c r="R3" s="49" t="n">
-        <v>43927.0</v>
+        <v>43935.0</v>
       </c>
       <c r="S3" s="72" t="n">
         <v>0.4166666666666667</v>
@@ -1952,7 +1952,7 @@
         <v>91</v>
       </c>
       <c r="B4" s="41" t="n">
-        <v>43910.0</v>
+        <v>43918.0</v>
       </c>
       <c r="C4" s="59" t="n">
         <v>0.4791666666666667</v>
@@ -1964,7 +1964,7 @@
         <v>110</v>
       </c>
       <c r="F4" s="43" t="n">
-        <v>43909.0</v>
+        <v>43917.0</v>
       </c>
       <c r="G4" s="44" t="n">
         <v>0.5208333333333334</v>
@@ -1976,7 +1976,7 @@
         <v>111</v>
       </c>
       <c r="J4" s="46" t="n">
-        <v>43913.0</v>
+        <v>43921.0</v>
       </c>
       <c r="K4" s="55" t="n">
         <v>0.5277777777777778</v>
@@ -1988,7 +1988,7 @@
         <v>108</v>
       </c>
       <c r="N4" s="45" t="n">
-        <v>43915.0</v>
+        <v>43923.0</v>
       </c>
       <c r="O4" s="52" t="n">
         <v>0.7083333333333334</v>
@@ -2000,7 +2000,7 @@
         <v>134</v>
       </c>
       <c r="R4" s="50" t="n">
-        <v>43919.0</v>
+        <v>43927.0</v>
       </c>
       <c r="S4" s="75" t="n">
         <v>0.5</v>

--- a/src/test/resources/excelTests/manifestUploadTestInactiveSupplierOrCustomer.xlsx
+++ b/src/test/resources/excelTests/manifestUploadTestInactiveSupplierOrCustomer.xlsx
@@ -1883,7 +1883,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="51" t="n">
-        <v>43919.0</v>
+        <v>43922.0</v>
       </c>
       <c r="C3" s="61" t="n">
         <v>0.4375</v>
@@ -1895,7 +1895,7 @@
         <v>109</v>
       </c>
       <c r="F3" s="42" t="n">
-        <v>43920.0</v>
+        <v>43923.0</v>
       </c>
       <c r="G3" s="44" t="n">
         <v>0.6458333333333334</v>
@@ -1911,7 +1911,7 @@
         <v>108</v>
       </c>
       <c r="N3" s="48" t="n">
-        <v>43922.0</v>
+        <v>43925.0</v>
       </c>
       <c r="O3" s="53" t="n">
         <v>0.4583333333333333</v>
@@ -1923,7 +1923,7 @@
         <v>41</v>
       </c>
       <c r="R3" s="49" t="n">
-        <v>43935.0</v>
+        <v>43938.0</v>
       </c>
       <c r="S3" s="72" t="n">
         <v>0.4166666666666667</v>
@@ -1952,7 +1952,7 @@
         <v>91</v>
       </c>
       <c r="B4" s="41" t="n">
-        <v>43918.0</v>
+        <v>43921.0</v>
       </c>
       <c r="C4" s="59" t="n">
         <v>0.4791666666666667</v>
@@ -1964,7 +1964,7 @@
         <v>110</v>
       </c>
       <c r="F4" s="43" t="n">
-        <v>43917.0</v>
+        <v>43920.0</v>
       </c>
       <c r="G4" s="44" t="n">
         <v>0.5208333333333334</v>
@@ -1976,7 +1976,7 @@
         <v>111</v>
       </c>
       <c r="J4" s="46" t="n">
-        <v>43921.0</v>
+        <v>43924.0</v>
       </c>
       <c r="K4" s="55" t="n">
         <v>0.5277777777777778</v>
@@ -1988,7 +1988,7 @@
         <v>108</v>
       </c>
       <c r="N4" s="45" t="n">
-        <v>43923.0</v>
+        <v>43926.0</v>
       </c>
       <c r="O4" s="52" t="n">
         <v>0.7083333333333334</v>
@@ -2000,7 +2000,7 @@
         <v>134</v>
       </c>
       <c r="R4" s="50" t="n">
-        <v>43927.0</v>
+        <v>43930.0</v>
       </c>
       <c r="S4" s="75" t="n">
         <v>0.5</v>

--- a/src/test/resources/excelTests/manifestUploadTestInactiveSupplierOrCustomer.xlsx
+++ b/src/test/resources/excelTests/manifestUploadTestInactiveSupplierOrCustomer.xlsx
@@ -1883,7 +1883,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="51" t="n">
-        <v>43922.0</v>
+        <v>43933.0</v>
       </c>
       <c r="C3" s="61" t="n">
         <v>0.4375</v>
@@ -1895,7 +1895,7 @@
         <v>109</v>
       </c>
       <c r="F3" s="42" t="n">
-        <v>43923.0</v>
+        <v>43934.0</v>
       </c>
       <c r="G3" s="44" t="n">
         <v>0.6458333333333334</v>
@@ -1911,7 +1911,7 @@
         <v>108</v>
       </c>
       <c r="N3" s="48" t="n">
-        <v>43925.0</v>
+        <v>43936.0</v>
       </c>
       <c r="O3" s="53" t="n">
         <v>0.4583333333333333</v>
@@ -1923,7 +1923,7 @@
         <v>41</v>
       </c>
       <c r="R3" s="49" t="n">
-        <v>43938.0</v>
+        <v>43949.0</v>
       </c>
       <c r="S3" s="72" t="n">
         <v>0.4166666666666667</v>
@@ -1952,7 +1952,7 @@
         <v>91</v>
       </c>
       <c r="B4" s="41" t="n">
-        <v>43921.0</v>
+        <v>43932.0</v>
       </c>
       <c r="C4" s="59" t="n">
         <v>0.4791666666666667</v>
@@ -1964,7 +1964,7 @@
         <v>110</v>
       </c>
       <c r="F4" s="43" t="n">
-        <v>43920.0</v>
+        <v>43931.0</v>
       </c>
       <c r="G4" s="44" t="n">
         <v>0.5208333333333334</v>
@@ -1976,7 +1976,7 @@
         <v>111</v>
       </c>
       <c r="J4" s="46" t="n">
-        <v>43924.0</v>
+        <v>43935.0</v>
       </c>
       <c r="K4" s="55" t="n">
         <v>0.5277777777777778</v>
@@ -1988,7 +1988,7 @@
         <v>108</v>
       </c>
       <c r="N4" s="45" t="n">
-        <v>43926.0</v>
+        <v>43937.0</v>
       </c>
       <c r="O4" s="52" t="n">
         <v>0.7083333333333334</v>
@@ -2000,7 +2000,7 @@
         <v>134</v>
       </c>
       <c r="R4" s="50" t="n">
-        <v>43930.0</v>
+        <v>43941.0</v>
       </c>
       <c r="S4" s="75" t="n">
         <v>0.5</v>

--- a/src/test/resources/excelTests/manifestUploadTestInactiveSupplierOrCustomer.xlsx
+++ b/src/test/resources/excelTests/manifestUploadTestInactiveSupplierOrCustomer.xlsx
@@ -1883,7 +1883,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="51" t="n">
-        <v>43933.0</v>
+        <v>43936.0</v>
       </c>
       <c r="C3" s="61" t="n">
         <v>0.4375</v>
@@ -1895,7 +1895,7 @@
         <v>109</v>
       </c>
       <c r="F3" s="42" t="n">
-        <v>43934.0</v>
+        <v>43937.0</v>
       </c>
       <c r="G3" s="44" t="n">
         <v>0.6458333333333334</v>
@@ -1911,7 +1911,7 @@
         <v>108</v>
       </c>
       <c r="N3" s="48" t="n">
-        <v>43936.0</v>
+        <v>43939.0</v>
       </c>
       <c r="O3" s="53" t="n">
         <v>0.4583333333333333</v>
@@ -1923,7 +1923,7 @@
         <v>41</v>
       </c>
       <c r="R3" s="49" t="n">
-        <v>43949.0</v>
+        <v>43952.0</v>
       </c>
       <c r="S3" s="72" t="n">
         <v>0.4166666666666667</v>
@@ -1952,7 +1952,7 @@
         <v>91</v>
       </c>
       <c r="B4" s="41" t="n">
-        <v>43932.0</v>
+        <v>43935.0</v>
       </c>
       <c r="C4" s="59" t="n">
         <v>0.4791666666666667</v>
@@ -1964,7 +1964,7 @@
         <v>110</v>
       </c>
       <c r="F4" s="43" t="n">
-        <v>43931.0</v>
+        <v>43934.0</v>
       </c>
       <c r="G4" s="44" t="n">
         <v>0.5208333333333334</v>
@@ -1976,7 +1976,7 @@
         <v>111</v>
       </c>
       <c r="J4" s="46" t="n">
-        <v>43935.0</v>
+        <v>43938.0</v>
       </c>
       <c r="K4" s="55" t="n">
         <v>0.5277777777777778</v>
@@ -1988,7 +1988,7 @@
         <v>108</v>
       </c>
       <c r="N4" s="45" t="n">
-        <v>43937.0</v>
+        <v>43940.0</v>
       </c>
       <c r="O4" s="52" t="n">
         <v>0.7083333333333334</v>
@@ -2000,7 +2000,7 @@
         <v>134</v>
       </c>
       <c r="R4" s="50" t="n">
-        <v>43941.0</v>
+        <v>43944.0</v>
       </c>
       <c r="S4" s="75" t="n">
         <v>0.5</v>

--- a/src/test/resources/excelTests/manifestUploadTestInactiveSupplierOrCustomer.xlsx
+++ b/src/test/resources/excelTests/manifestUploadTestInactiveSupplierOrCustomer.xlsx
@@ -1883,7 +1883,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="51" t="n">
-        <v>43936.0</v>
+        <v>43942.0</v>
       </c>
       <c r="C3" s="61" t="n">
         <v>0.4375</v>
@@ -1895,7 +1895,7 @@
         <v>109</v>
       </c>
       <c r="F3" s="42" t="n">
-        <v>43937.0</v>
+        <v>43943.0</v>
       </c>
       <c r="G3" s="44" t="n">
         <v>0.6458333333333334</v>
@@ -1911,7 +1911,7 @@
         <v>108</v>
       </c>
       <c r="N3" s="48" t="n">
-        <v>43939.0</v>
+        <v>43945.0</v>
       </c>
       <c r="O3" s="53" t="n">
         <v>0.4583333333333333</v>
@@ -1923,7 +1923,7 @@
         <v>41</v>
       </c>
       <c r="R3" s="49" t="n">
-        <v>43952.0</v>
+        <v>43958.0</v>
       </c>
       <c r="S3" s="72" t="n">
         <v>0.4166666666666667</v>
@@ -1952,7 +1952,7 @@
         <v>91</v>
       </c>
       <c r="B4" s="41" t="n">
-        <v>43935.0</v>
+        <v>43941.0</v>
       </c>
       <c r="C4" s="59" t="n">
         <v>0.4791666666666667</v>
@@ -1964,7 +1964,7 @@
         <v>110</v>
       </c>
       <c r="F4" s="43" t="n">
-        <v>43934.0</v>
+        <v>43940.0</v>
       </c>
       <c r="G4" s="44" t="n">
         <v>0.5208333333333334</v>
@@ -1976,7 +1976,7 @@
         <v>111</v>
       </c>
       <c r="J4" s="46" t="n">
-        <v>43938.0</v>
+        <v>43944.0</v>
       </c>
       <c r="K4" s="55" t="n">
         <v>0.5277777777777778</v>
@@ -1988,7 +1988,7 @@
         <v>108</v>
       </c>
       <c r="N4" s="45" t="n">
-        <v>43940.0</v>
+        <v>43946.0</v>
       </c>
       <c r="O4" s="52" t="n">
         <v>0.7083333333333334</v>
@@ -2000,7 +2000,7 @@
         <v>134</v>
       </c>
       <c r="R4" s="50" t="n">
-        <v>43944.0</v>
+        <v>43950.0</v>
       </c>
       <c r="S4" s="75" t="n">
         <v>0.5</v>
